--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v7 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v7 draft.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="466">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1638,6 +1638,9 @@
   <si>
     <t>Proposed to undeprecate; longest known is 18 chars (incl. country code)
 Deprecated in 1.1.0; undeprecated in v6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -2071,10 +2074,10 @@
   <dimension ref="A1:AML83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -11340,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>143</v>
@@ -12487,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>452</v>
@@ -14605,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>170</v>
@@ -17831,7 +17834,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:1026" s="13" customFormat="1" ht="29">
@@ -18903,7 +18906,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:1026">
@@ -18928,7 +18931,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -18953,7 +18956,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -18978,7 +18981,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -19003,7 +19006,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -19028,7 +19031,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -19052,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -19077,7 +19080,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -19102,7 +19105,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -19127,7 +19130,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -19152,7 +19155,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -19177,7 +19180,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -19202,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -19227,7 +19230,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -19252,7 +19255,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -19277,7 +19280,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -19302,7 +19305,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -19327,7 +19330,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:1026">
@@ -19352,7 +19355,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:1026">
@@ -19377,7 +19380,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:1026" ht="29">
@@ -19402,7 +19405,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:1026">
@@ -19427,7 +19430,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:1026">
@@ -19452,7 +19455,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:1026">
@@ -19477,7 +19480,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:1026">
@@ -19502,7 +19505,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:1026">
@@ -19527,7 +19530,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:1026">
@@ -19552,7 +19555,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:1026">
@@ -19577,7 +19580,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:1026">
@@ -19602,7 +19605,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:1026">
@@ -19626,7 +19629,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:1026">
@@ -19651,7 +19654,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:1026">
@@ -19676,7 +19679,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:1026" s="13" customFormat="1">
@@ -20745,7 +20748,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:1026" ht="58">
@@ -20802,7 +20805,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:1026" s="13" customFormat="1">

--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v7 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v7 draft.xlsx
@@ -1508,9 +1508,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>BE:BCE</t>
-  </si>
-  <si>
     <t>10 numeric characters.
 1. Enterprise identification number: the first digit has to be "0" or "1"
 2. Establishment unit identification number: the first digit has to be "2".
@@ -1523,6 +1520,9 @@
 - one digit, then three groups of three digits, each separated by a dot. Example: 1.234.456.789
 For establishment unit numbers:
 - one digit, then three groups of three digits, each separated by a dot. Example: 2.123.456.789</t>
+  </si>
+  <si>
+    <t>BE:EN</t>
   </si>
 </sst>
 </file>
@@ -1934,8 +1934,8 @@
   <dimension ref="A1:AML84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1994,7 +1994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
+    <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="28" spans="1:12 1026:1026" ht="165">
       <c r="A28" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>432</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>438</v>
       </c>
       <c r="K28" s="5"/>
       <c r="AML28" s="1"/>

--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v7 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v7 draft.xlsx
@@ -10,14 +10,9 @@
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$L$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$M$84</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -58,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="471">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -88,9 +83,6 @@
   </si>
   <si>
     <t>Display requirements</t>
-  </si>
-  <si>
-    <t>PEPPOL Examples</t>
   </si>
   <si>
     <t>Usage notes</t>
@@ -1476,10 +1468,6 @@
     <t>Numerical part is the OrgNumber</t>
   </si>
   <si>
-    <t>Proposed to undeprecate; longest known is 18 chars (incl. country code)
-Deprecated in 1.1.0; undeprecated in v6</t>
-  </si>
-  <si>
     <t>Proposed to deprecate</t>
   </si>
   <si>
@@ -1523,6 +1511,155 @@
   </si>
   <si>
     <t>BE:EN</t>
+  </si>
+  <si>
+    <t>Peppol Examples</t>
+  </si>
+  <si>
+    <t>Validation Rules</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{9}([0-9]{5})?
+Check digits: Luhn Algorithm</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{10}
+Check digits: Luhn Algorithm</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{14}</t>
+  </si>
+  <si>
+    <t>RegEx: 0037[0-9]{8}[0-9A-Z]{0,5}
+Check Digit: mod11 of 8-digit OrgCode (weights 2, 4, 8, 5, 10, 9, 7 [right to left] or 7, 9, 10, 5, 8, 4, 2, 1 [left to right])</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{9}</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{13}
+Check Digit: mod10 (weights 1, 3)</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{17}
+Check Digits: mod97</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{11,16}
+The check digit algorithm is the one published in the Gazzetta Ufficiale no 345 of December 29 1976.</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{11}
+Check number: mod 89 (weights)
+* Subtract 1 from the first (left-most) digit of the ABN to give a new 11 digit number
+* Multiply each of the digits in this new number by a "weighting factor" based on its position as shown in the table below
+*Sum the resulting 11 products
+* Divide the sum total by 89, noting the remainder
+* If the remainder is zero the number is a valid ABN
+Weight: 10, 1, 3, 5, 7, 9, 11, 13, 15, 17, 19</t>
+  </si>
+  <si>
+    <t>RegEx: CHE[0-9]{9}
+Check number: mod11 (weights: 5, 4, 3, 2, 7, 6, 5, 4)</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{8}([0-9]{2})?</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{20}</t>
+  </si>
+  <si>
+    <t>RegEx: [1789][0-9]{7}
+CheckDigit as last char.
+Python code to check:
+def calc_check_digit(number):
+    """Calculate the check digit."""
+    check = sum(((i % 9) + 1) * int(n)
+                for i, n in enumerate(number[:-1])) % 11
+    if check == 10:
+        check = sum((((i + 2) % 9) + 1) * int(n)
+                    for i, n in enumerate(number[:-1])) % 11
+    return str(check % 10)</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{9}
+Check digit: mod11 (weights 3, 2, 7, 6, 5, 4, 3)</t>
+  </si>
+  <si>
+    <t>RegEx: .{4,50}</t>
+  </si>
+  <si>
+    <t>RegEx: [a-z]{2}[a-z]{3}([0-9]{8}|[0-9]{9}|[RST][0-9]{2}[a-z]{2}[0-9]{4})[0-9a-z]</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{10}
+Check digit: mod11 (weights 3, 2, 7, 6, 5, 4, 3, 2)</t>
+  </si>
+  <si>
+    <t>RegEx: DK[0-9]{8}
+Check digit: mod11 (weights 2, 7, 6, 5, 4, 3, 2, 1)</t>
+  </si>
+  <si>
+    <t>RegEx: [A-Z0-9]{18}[0-9]{2}
+Check digit: mod97-10</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{9}
+Check number: see text</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9a-zA-Z]{6}
+No checkdigit</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{0,12}(\-[0-9a-zA-Z]{0,30}(\-[0-9]{2}))</t>
+  </si>
+  <si>
+    <t>RegEx: [1-9][0-9]{7}
+Check digit: mod11 (weights, 2, 7, 6, 5, 4, 3, 2, 1)</t>
+  </si>
+  <si>
+    <t>RegEx: DK[0-9]{8}
+Taks: validate Check digit: mod11 (weights 2, 7, 6, 5, 4, 3, 2, 1)</t>
+  </si>
+  <si>
+    <t>RegEx: IT[0-9]{11}
+first 7: company identifiers
+next 3: province of residence (between "001" and "100"; or "120", "121", "888" "999")
+Last: check digit
+Check digit: Luhn</t>
+  </si>
+  <si>
+    <t>RegEx: [0-9]{11} (company identification)
+first 7: company identifiers
+next 3: province of residence (between "001" and "100"; or "120", "121", "888" "999")
+Last: check digit
+Check digit: Luhn
+RegEx: [A-Z]{6}[0-9LMNPQRSTUV]{2}[ABCDEHLMPRST][0-9LMNPQRSTUV]{2}[A-Z][0-9LMNPQRSTUV]{3}[A-Z] (personal identification)
+Check digit: https://github.com/arthurdejong/python-stdnum/blob/master/stdnum/it/codicefiscale.py</t>
+  </si>
+  <si>
+    <t>RegEx: NO[0-9]{9}MVA
+Check digit: mod11 (weights 3, 2, 7, 6, 5, 4, 3)</t>
+  </si>
+  <si>
+    <t>RegEx: HU[0-9]{8}
+Check digit: https://github.com/arthurdejong/python-stdnum/blob/master/stdnum/hu/anum.py</t>
+  </si>
+  <si>
+    <t>RegEx: [A-Z]{2}[A-Z0-9]{,20}</t>
+  </si>
+  <si>
+    <t>RegEx: [A-Z][A-Z0-9]*</t>
+  </si>
+  <si>
+    <t>RegEx: 0[0-9]{9}
+Check digit: mod97
+See https://github.com/arthurdejong/python-stdnum/blob/master/stdnum/be/vat.py</t>
+  </si>
+  <si>
+    <t>Proposed to undeprecate; longest known is 18 chars (incl. country code)
+Deprecated in 1.1.0</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1636,6 +1773,18 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1931,11 +2080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AML84"/>
+  <dimension ref="A1:AMM84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1951,12 +2102,13 @@
     <col min="9" max="9" width="62.28515625" style="8" customWidth="1"/>
     <col min="10" max="10" width="45.140625" style="8" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="14.140625" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="8.7109375" style="9"/>
+    <col min="12" max="12" width="30.5703125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="14.140625" style="1" customWidth="1"/>
+    <col min="1027" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1">
+    <row r="1" spans="1:13" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1988,1456 +2140,1560 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="75">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="75">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="150">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="105">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="195">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="180">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="210">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="240">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="150">
+      <c r="A15" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="150">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="L16" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13 1027:1027" ht="150">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13 1027:1027" ht="225">
+      <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="105">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="K18" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13 1027:1027" ht="60">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13 1027:1027" ht="45">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13 1027:1027" ht="105">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13 1027:1027" ht="105">
+      <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13 1027:1027" ht="45">
+      <c r="A23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13 1027:1027" ht="409.5">
+      <c r="A24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="195">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13 1027:1027" ht="90">
+      <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13 1027:1027" ht="30">
+      <c r="A26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G26" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AMM26" s="1"/>
+    </row>
+    <row r="27" spans="1:13 1027:1027" ht="45">
+      <c r="A27" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G27" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AMM27" s="1"/>
+    </row>
+    <row r="28" spans="1:13 1027:1027" ht="165">
+      <c r="A28" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="15"/>
+      <c r="AMM28" s="1"/>
+    </row>
+    <row r="29" spans="1:13 1027:1027" ht="30">
+      <c r="A29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="180">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13 1027:1027" ht="45">
+      <c r="A30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13 1027:1027" ht="45">
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13 1027:1027" ht="45">
+      <c r="A32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="105">
+      <c r="A33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="210">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="210">
-      <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="150">
-      <c r="A15" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="285">
+      <c r="A34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="60">
+      <c r="A35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="45">
+      <c r="A36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12 1026:1026" ht="150">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12 1026:1026" ht="105">
-      <c r="A18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12 1026:1026" ht="60">
-      <c r="A19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12 1026:1026" ht="45">
-      <c r="A20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12 1026:1026" ht="105">
-      <c r="A21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12 1026:1026" ht="105">
-      <c r="A22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12 1026:1026" ht="30">
-      <c r="A23" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12 1026:1026" ht="409.5">
-      <c r="A24" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12 1026:1026" ht="90">
-      <c r="A25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12 1026:1026" ht="30">
-      <c r="A26" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G26" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AML26" s="1"/>
-    </row>
-    <row r="27" spans="1:12 1026:1026" ht="45">
-      <c r="A27" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G27" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AML27" s="1"/>
-    </row>
-    <row r="28" spans="1:12 1026:1026" ht="165">
-      <c r="A28" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G28" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="AML28" s="1"/>
-    </row>
-    <row r="29" spans="1:12 1026:1026" ht="30">
-      <c r="A29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12 1026:1026" ht="30">
-      <c r="A30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12 1026:1026" ht="30">
-      <c r="A31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12 1026:1026" ht="45">
-      <c r="A32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="105">
-      <c r="A34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="60">
-      <c r="A35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30">
-      <c r="A36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="90">
+      <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="75">
+      <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="90">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I38" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30">
+      <c r="A39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30">
+      <c r="A40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="30">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30">
+      <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="30">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30">
+        <v>407</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30">
       <c r="A42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="105">
+      <c r="A43" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="105">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="L43" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="75">
+      <c r="A44" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="75">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G45" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="I45" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30">
+      <c r="A46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30">
+      <c r="A47" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G46" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G47" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>363</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G48" s="7" t="b">
         <f>FALSE</f>
@@ -3446,20 +3702,20 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G49" s="7" t="b">
         <f>FALSE</f>
@@ -3468,20 +3724,20 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G50" s="7" t="b">
         <f>FALSE</f>
@@ -3490,20 +3746,20 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G51" s="7" t="b">
         <f>FALSE</f>
@@ -3512,20 +3768,20 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G52" s="7" t="b">
         <f>FALSE</f>
@@ -3534,20 +3790,20 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G53" s="7" t="b">
         <f>FALSE</f>
@@ -3556,19 +3812,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G54" s="7" t="b">
         <f>FALSE</f>
@@ -3577,20 +3833,20 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G55" s="7" t="b">
         <f>FALSE</f>
@@ -3599,20 +3855,20 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G56" s="7" t="b">
         <f>FALSE</f>
@@ -3621,20 +3877,20 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G57" s="7" t="b">
         <f>FALSE</f>
@@ -3643,20 +3899,20 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G58" s="7" t="b">
         <f>FALSE</f>
@@ -3665,20 +3921,20 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G59" s="7" t="b">
         <f>FALSE</f>
@@ -3687,20 +3943,20 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G60" s="7" t="b">
         <f>FALSE</f>
@@ -3709,20 +3965,20 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G61" s="7" t="b">
         <f>FALSE</f>
@@ -3731,20 +3987,20 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G62" s="7" t="b">
         <f>FALSE</f>
@@ -3753,20 +4009,20 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" s="7" t="b">
         <f>FALSE</f>
@@ -3775,483 +4031,488 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G64" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G65" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G66" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G67" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="30">
+    <row r="68" spans="1:13" ht="30">
       <c r="A68" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G68" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G69" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G70" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G71" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G72" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G73" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G74" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G75" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G76" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="F77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G77" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G77" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="11" t="s">
+      <c r="B78" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G78" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="30">
+    <row r="79" spans="1:13" ht="30">
       <c r="A79" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G79" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="G80" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="105">
+      <c r="A82" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G81" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="30">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="8" t="s">
+      <c r="K82" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K82" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="F83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" s="7" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G84" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>431</v>
+        <v>363</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L84"/>
+  <autoFilter ref="A1:M84">
+    <filterColumn colId="11"/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
